--- a/my_parametric_study_modified.xlsx
+++ b/my_parametric_study_modified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjects\pyfwg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\pyfwg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9178EB7-0F14-4A67-8266-B0177D279D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EDB67C-BF0A-4572-AC3E-EF5F9219290C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-14780" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>epw_paths</t>
   </si>
@@ -107,13 +107,19 @@
   </si>
   <si>
     <t>['MIROC6']</t>
+  </si>
+  <si>
+    <t>results_using_excel/madrid</t>
+  </si>
+  <si>
+    <t>results_using_excel/seville</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,17 +482,74 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="386" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{28797BC9-D156-48CC-A0A9-4942A8E6E46D}">
+  <we:reference id="81ae7f57-2760-4043-a9cb-e0d36209e808" version="1.3.0.0" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,21 +626,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
